--- a/python/Inputs/Inputs_ThorntonParents.xlsx
+++ b/python/Inputs/Inputs_ThorntonParents.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Dropbox\PC\Desktop\Projects\personalFinances\python\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E46D9E0-2EC2-4C57-A55C-DE2092DEB2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9BC28D-84C2-41A7-8A0A-183036DE1BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
     <sheet name="Salary" sheetId="20" r:id="rId2"/>
-    <sheet name="Salary (Past)" sheetId="27" r:id="rId3"/>
+    <sheet name="Salary (Past)" sheetId="28" r:id="rId3"/>
     <sheet name="Accounts" sheetId="4" r:id="rId4"/>
     <sheet name="Allocations" sheetId="2" r:id="rId5"/>
     <sheet name="Earnings" sheetId="3" r:id="rId6"/>
@@ -490,9 +490,6 @@
     <t>Owner</t>
   </si>
   <si>
-    <t>IND_1</t>
-  </si>
-  <si>
     <t>Previous Salary</t>
   </si>
   <si>
@@ -503,6 +500,9 @@
   </si>
   <si>
     <t>Repeats</t>
+  </si>
+  <si>
+    <t>IND-1</t>
   </si>
 </sst>
 </file>
@@ -1685,8 +1685,8 @@
   </sheetPr>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="44">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1931,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="4">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E18" s="4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B5" s="19">
         <f ca="1">IF(ISNUMBER(A5),A5+RANDBETWEEN(7,12),"")</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="18">
         <v>35000</v>
@@ -2774,11 +2774,11 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <f ca="1">IF(B5&lt;Inputs!$C$3,B5,"")</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" s="18">
         <v>35000</v>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B8" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" s="18">
         <v>40000</v>
@@ -2836,11 +2836,11 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <f ca="1">IF(B7&lt;Inputs!$C$3,B7,"")</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="18">
         <v>40000</v>
@@ -2864,15 +2864,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <f ca="1">IF(B8&lt;Inputs!$C$3,B8,"")</f>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="18">
         <f ca="1">IF(ISNUMBER(B10),RANDBETWEEN(40000,60000),"")</f>
-        <v>55851</v>
+        <v>48200</v>
       </c>
       <c r="D10" s="33">
         <v>1</v>
@@ -2893,15 +2893,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <f ca="1">IF(B9&lt;Inputs!$C$3,B9,"")</f>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B11" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C11" s="18">
         <f ca="1">IF(ISNUMBER(B11),RANDBETWEEN(40000,60000),"")</f>
-        <v>54634</v>
+        <v>43911</v>
       </c>
       <c r="D11" s="33">
         <v>1</v>
@@ -2922,7 +2922,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <f ca="1">IF(B10&lt;Inputs!$C$3,B10,"")</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="19">
         <f t="shared" ca="1" si="0"/>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="C12" s="18">
         <f t="shared" ref="C12:C20" ca="1" si="4">IF(ISNUMBER(B12),RANDBETWEEN(40000,60000),"")</f>
-        <v>57841</v>
+        <v>54650</v>
       </c>
       <c r="D12" s="33">
         <v>1</v>
@@ -2949,17 +2949,17 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="str">
+      <c r="A13" s="17">
         <f ca="1">IF(B11&lt;Inputs!$C$3,B11,"")</f>
-        <v/>
-      </c>
-      <c r="B13" s="19" t="str">
+        <v>36</v>
+      </c>
+      <c r="B13" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C13" s="18" t="str">
+        <v>45</v>
+      </c>
+      <c r="C13" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>51047</v>
       </c>
       <c r="D13" s="33">
         <v>1</v>
@@ -5652,7 +5652,7 @@
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5670,7 +5670,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>3</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>72</v>
@@ -6530,7 +6530,7 @@
       </c>
       <c r="B13" s="63">
         <f ca="1">(1+(RANDBETWEEN(2,10)/100))*B12</f>
-        <v>420000</v>
+        <v>408000</v>
       </c>
       <c r="C13" s="63"/>
     </row>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="B14" s="63">
         <f t="shared" ref="B14:B26" ca="1" si="1">(1+(RANDBETWEEN(2,10)/100))*B13</f>
-        <v>453600.00000000006</v>
+        <v>436560</v>
       </c>
       <c r="C14" s="63"/>
     </row>
@@ -6552,7 +6552,7 @@
       </c>
       <c r="B15" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>480816.00000000006</v>
+        <v>475850.4</v>
       </c>
       <c r="C15" s="63"/>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="B16" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>495240.4800000001</v>
+        <v>504401.42400000006</v>
       </c>
       <c r="C16" s="63"/>
     </row>
@@ -6574,7 +6574,7 @@
       </c>
       <c r="B17" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>515050.09920000011</v>
+        <v>554841.56640000013</v>
       </c>
       <c r="C17" s="63"/>
     </row>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="B18" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>556254.10713600018</v>
+        <v>571486.81339200016</v>
       </c>
       <c r="C18" s="63"/>
     </row>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B19" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>589629.35356416018</v>
+        <v>617205.75846336025</v>
       </c>
       <c r="C19" s="63"/>
     </row>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="B20" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>607318.23417108494</v>
+        <v>660410.16155579546</v>
       </c>
       <c r="C20" s="63"/>
     </row>
@@ -6618,7 +6618,7 @@
       </c>
       <c r="B21" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>668050.05758819345</v>
+        <v>673618.36478691141</v>
       </c>
       <c r="C21" s="63"/>
     </row>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="B22" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>734855.06334701285</v>
+        <v>687090.7320826496</v>
       </c>
       <c r="C22" s="63"/>
     </row>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="B23" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>771597.81651436351</v>
+        <v>714574.36136595556</v>
       </c>
       <c r="C23" s="63"/>
     </row>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="B24" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>802461.72917493805</v>
+        <v>736011.59220693423</v>
       </c>
       <c r="C24" s="63"/>
     </row>
@@ -6662,7 +6662,7 @@
       </c>
       <c r="B25" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>882707.9020924319</v>
+        <v>758091.93997314223</v>
       </c>
       <c r="C25" s="63"/>
     </row>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="B26" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>918016.21817612916</v>
+        <v>773253.77877260512</v>
       </c>
       <c r="C26" s="63"/>
     </row>
@@ -7290,7 +7290,7 @@
   </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -7329,7 +7329,7 @@
         <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>43</v>
@@ -7428,13 +7428,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADFC3B0-F1DD-41A7-BABA-3E0B96059412}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9296CB11-8E94-4D1E-A222-13A12A1BD88A}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView topLeftCell="L31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -7450,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -7475,7 +7475,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="65">
-        <f t="shared" ref="A4:A48" si="0">A3+1</f>
+        <f>A3+1</f>
         <v>-45</v>
       </c>
       <c r="B4" s="41">
@@ -7487,7 +7487,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="65">
-        <f t="shared" si="0"/>
+        <f>A4+1</f>
         <v>-44</v>
       </c>
       <c r="B5" s="41">
@@ -7499,7 +7499,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="65">
-        <f t="shared" si="0"/>
+        <f>A5+1</f>
         <v>-43</v>
       </c>
       <c r="B6" s="41">
@@ -7511,7 +7511,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="65">
-        <f t="shared" si="0"/>
+        <f>A6+1</f>
         <v>-42</v>
       </c>
       <c r="B7" s="41">
@@ -7523,7 +7523,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="65">
-        <f t="shared" si="0"/>
+        <f>A7+1</f>
         <v>-41</v>
       </c>
       <c r="B8" s="41">
@@ -7535,7 +7535,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="65">
-        <f t="shared" si="0"/>
+        <f>A8+1</f>
         <v>-40</v>
       </c>
       <c r="B9" s="41">
@@ -7547,7 +7547,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="65">
-        <f t="shared" si="0"/>
+        <f>A9+1</f>
         <v>-39</v>
       </c>
       <c r="B10" s="41">
@@ -7559,7 +7559,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="65">
-        <f t="shared" si="0"/>
+        <f>A10+1</f>
         <v>-38</v>
       </c>
       <c r="B11" s="41">
@@ -7571,7 +7571,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="65">
-        <f t="shared" si="0"/>
+        <f>A11+1</f>
         <v>-37</v>
       </c>
       <c r="B12" s="41">
@@ -7583,7 +7583,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="65">
-        <f t="shared" si="0"/>
+        <f>A12+1</f>
         <v>-36</v>
       </c>
       <c r="B13" s="41">
@@ -7595,7 +7595,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="65">
-        <f t="shared" si="0"/>
+        <f>A13+1</f>
         <v>-35</v>
       </c>
       <c r="B14" s="41">
@@ -7607,7 +7607,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="65">
-        <f t="shared" si="0"/>
+        <f>A14+1</f>
         <v>-34</v>
       </c>
       <c r="B15" s="41">
@@ -7619,7 +7619,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="65">
-        <f t="shared" si="0"/>
+        <f>A15+1</f>
         <v>-33</v>
       </c>
       <c r="B16" s="41">
@@ -7631,7 +7631,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="65">
-        <f t="shared" si="0"/>
+        <f>A16+1</f>
         <v>-32</v>
       </c>
       <c r="B17" s="41">
@@ -7643,7 +7643,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="65">
-        <f t="shared" si="0"/>
+        <f>A17+1</f>
         <v>-31</v>
       </c>
       <c r="B18" s="41">
@@ -7655,7 +7655,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="65">
-        <f t="shared" si="0"/>
+        <f>A18+1</f>
         <v>-30</v>
       </c>
       <c r="B19" s="41">
@@ -7667,7 +7667,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="65">
-        <f t="shared" si="0"/>
+        <f>A19+1</f>
         <v>-29</v>
       </c>
       <c r="B20" s="41">
@@ -7679,7 +7679,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="65">
-        <f t="shared" si="0"/>
+        <f>A20+1</f>
         <v>-28</v>
       </c>
       <c r="B21" s="41">
@@ -7691,7 +7691,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="65">
-        <f t="shared" si="0"/>
+        <f>A21+1</f>
         <v>-27</v>
       </c>
       <c r="B22" s="41">
@@ -7703,7 +7703,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="65">
-        <f t="shared" si="0"/>
+        <f>A22+1</f>
         <v>-26</v>
       </c>
       <c r="B23" s="41">
@@ -7715,7 +7715,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="65">
-        <f t="shared" si="0"/>
+        <f>A23+1</f>
         <v>-25</v>
       </c>
       <c r="B24" s="41">
@@ -7727,7 +7727,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="65">
-        <f t="shared" si="0"/>
+        <f>A24+1</f>
         <v>-24</v>
       </c>
       <c r="B25" s="41">
@@ -7739,7 +7739,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="65">
-        <f t="shared" si="0"/>
+        <f>A25+1</f>
         <v>-23</v>
       </c>
       <c r="B26" s="41">
@@ -7751,7 +7751,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="65">
-        <f t="shared" si="0"/>
+        <f>A26+1</f>
         <v>-22</v>
       </c>
       <c r="B27" s="41">
@@ -7763,7 +7763,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="65">
-        <f t="shared" si="0"/>
+        <f>A27+1</f>
         <v>-21</v>
       </c>
       <c r="B28" s="41">
@@ -7775,7 +7775,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="65">
-        <f t="shared" si="0"/>
+        <f>A28+1</f>
         <v>-20</v>
       </c>
       <c r="B29" s="41">
@@ -7787,7 +7787,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="65">
-        <f t="shared" si="0"/>
+        <f>A29+1</f>
         <v>-19</v>
       </c>
       <c r="B30" s="41">
@@ -7799,7 +7799,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="65">
-        <f t="shared" si="0"/>
+        <f>A30+1</f>
         <v>-18</v>
       </c>
       <c r="B31" s="41">
@@ -7811,7 +7811,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="65">
-        <f t="shared" si="0"/>
+        <f>A31+1</f>
         <v>-17</v>
       </c>
       <c r="B32" s="41">
@@ -7823,7 +7823,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="65">
-        <f t="shared" si="0"/>
+        <f>A32+1</f>
         <v>-16</v>
       </c>
       <c r="B33" s="41">
@@ -7835,7 +7835,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="65">
-        <f t="shared" si="0"/>
+        <f>A33+1</f>
         <v>-15</v>
       </c>
       <c r="B34" s="41">
@@ -7847,7 +7847,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="65">
-        <f t="shared" si="0"/>
+        <f>A34+1</f>
         <v>-14</v>
       </c>
       <c r="B35" s="41">
@@ -7859,7 +7859,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="65">
-        <f t="shared" si="0"/>
+        <f>A35+1</f>
         <v>-13</v>
       </c>
       <c r="B36" s="41">
@@ -7871,7 +7871,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="65">
-        <f t="shared" si="0"/>
+        <f>A36+1</f>
         <v>-12</v>
       </c>
       <c r="B37" s="41">
@@ -7883,7 +7883,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="65">
-        <f t="shared" si="0"/>
+        <f>A37+1</f>
         <v>-11</v>
       </c>
       <c r="B38" s="41">
@@ -7895,7 +7895,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="65">
-        <f t="shared" si="0"/>
+        <f>A38+1</f>
         <v>-10</v>
       </c>
       <c r="B39" s="41">
@@ -7907,7 +7907,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="65">
-        <f t="shared" si="0"/>
+        <f>A39+1</f>
         <v>-9</v>
       </c>
       <c r="B40" s="41">
@@ -7919,7 +7919,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="65">
-        <f t="shared" si="0"/>
+        <f>A40+1</f>
         <v>-8</v>
       </c>
       <c r="B41" s="41">
@@ -7931,7 +7931,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="65">
-        <f t="shared" si="0"/>
+        <f>A41+1</f>
         <v>-7</v>
       </c>
       <c r="B42" s="41">
@@ -7943,7 +7943,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="65">
-        <f t="shared" si="0"/>
+        <f>A42+1</f>
         <v>-6</v>
       </c>
       <c r="B43" s="41">
@@ -7955,7 +7955,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="65">
-        <f t="shared" si="0"/>
+        <f>A43+1</f>
         <v>-5</v>
       </c>
       <c r="B44" s="41">
@@ -7967,7 +7967,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="65">
-        <f t="shared" si="0"/>
+        <f>A44+1</f>
         <v>-4</v>
       </c>
       <c r="B45" s="41">
@@ -7979,7 +7979,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="65">
-        <f t="shared" si="0"/>
+        <f>A45+1</f>
         <v>-3</v>
       </c>
       <c r="B46" s="41">
@@ -7991,7 +7991,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="65">
-        <f t="shared" si="0"/>
+        <f>A46+1</f>
         <v>-2</v>
       </c>
       <c r="B47" s="41">
@@ -8003,7 +8003,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="65">
-        <f t="shared" si="0"/>
+        <f>A47+1</f>
         <v>-1</v>
       </c>
       <c r="B48" s="41">
@@ -8286,15 +8286,15 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="64" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" style="70" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" style="25" bestFit="1" customWidth="1"/>
@@ -8309,6 +8309,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="13"/>
+      <c r="D1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="73"/>
@@ -8365,7 +8366,7 @@
         <v>100000</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>30</v>
@@ -8388,7 +8389,7 @@
         <v>1319000</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>28</v>
@@ -8444,616 +8445,528 @@
       <c r="H7" s="72"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="64"/>
       <c r="E8" s="20"/>
       <c r="F8" s="72"/>
       <c r="G8" s="41"/>
       <c r="H8" s="72"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="64"/>
       <c r="E9" s="20"/>
       <c r="F9" s="72"/>
       <c r="G9" s="41"/>
       <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="64"/>
       <c r="E10" s="20"/>
       <c r="F10" s="72"/>
       <c r="G10" s="41"/>
       <c r="H10" s="72"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="64"/>
       <c r="E11" s="20"/>
       <c r="F11" s="72"/>
       <c r="G11" s="41"/>
       <c r="H11" s="72"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="64"/>
       <c r="E12" s="20"/>
       <c r="F12" s="72"/>
       <c r="G12" s="41"/>
       <c r="H12" s="72"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="64"/>
       <c r="E13" s="20"/>
       <c r="F13" s="72"/>
       <c r="G13" s="41"/>
       <c r="H13" s="72"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="64"/>
       <c r="E14" s="20"/>
       <c r="F14" s="72"/>
       <c r="G14" s="41"/>
       <c r="H14" s="72"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="64"/>
       <c r="E15" s="20"/>
       <c r="F15" s="72"/>
       <c r="G15" s="41"/>
       <c r="H15" s="72"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="64"/>
       <c r="E16" s="20"/>
       <c r="F16" s="72"/>
       <c r="G16" s="41"/>
       <c r="H16" s="72"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="64"/>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E17" s="20"/>
       <c r="F17" s="72"/>
       <c r="G17" s="41"/>
       <c r="H17" s="72"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="64"/>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E18" s="20"/>
       <c r="F18" s="72"/>
       <c r="G18" s="41"/>
       <c r="H18" s="72"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="64"/>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E19" s="20"/>
       <c r="F19" s="72"/>
       <c r="G19" s="41"/>
       <c r="H19" s="72"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="64"/>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E20" s="20"/>
       <c r="F20" s="72"/>
       <c r="G20" s="41"/>
       <c r="H20" s="72"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="64"/>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E21" s="20"/>
       <c r="F21" s="72"/>
       <c r="G21" s="41"/>
       <c r="H21" s="72"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="64"/>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E22" s="20"/>
       <c r="F22" s="72"/>
       <c r="G22" s="41"/>
       <c r="H22" s="72"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="64"/>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E23" s="20"/>
       <c r="F23" s="72"/>
       <c r="G23" s="41"/>
       <c r="H23" s="72"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="64"/>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E24" s="20"/>
       <c r="F24" s="72"/>
       <c r="G24" s="41"/>
       <c r="H24" s="72"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="64"/>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E25" s="20"/>
       <c r="F25" s="72"/>
       <c r="G25" s="41"/>
       <c r="H25" s="72"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="64"/>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E26" s="20"/>
       <c r="F26" s="72"/>
       <c r="G26" s="41"/>
       <c r="H26" s="72"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="64"/>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E27" s="20"/>
       <c r="F27" s="72"/>
       <c r="G27" s="41"/>
       <c r="H27" s="72"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="64"/>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E28" s="20"/>
       <c r="F28" s="72"/>
       <c r="G28" s="41"/>
       <c r="H28" s="72"/>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C29" s="64"/>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E29" s="20"/>
       <c r="F29" s="72"/>
       <c r="G29" s="41"/>
       <c r="H29" s="72"/>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="64"/>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E30" s="20"/>
       <c r="F30" s="72"/>
       <c r="G30" s="41"/>
       <c r="H30" s="72"/>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="64"/>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E31" s="20"/>
       <c r="F31" s="72"/>
       <c r="G31" s="41"/>
       <c r="H31" s="72"/>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C32" s="64"/>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E32" s="20"/>
       <c r="F32" s="72"/>
       <c r="G32" s="41"/>
       <c r="H32" s="72"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C33" s="64"/>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E33" s="20"/>
       <c r="F33" s="72"/>
       <c r="G33" s="41"/>
       <c r="H33" s="72"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C34" s="64"/>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E34" s="20"/>
       <c r="F34" s="72"/>
       <c r="G34" s="41"/>
       <c r="H34" s="72"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="64"/>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E35" s="20"/>
       <c r="F35" s="72"/>
       <c r="G35" s="41"/>
       <c r="H35" s="72"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="64"/>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E36" s="20"/>
       <c r="F36" s="72"/>
       <c r="G36" s="41"/>
       <c r="H36" s="72"/>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="64"/>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E37" s="20"/>
       <c r="F37" s="72"/>
       <c r="G37" s="41"/>
       <c r="H37" s="72"/>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="64"/>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E38" s="20"/>
       <c r="F38" s="72"/>
       <c r="G38" s="41"/>
       <c r="H38" s="72"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="64"/>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E39" s="20"/>
       <c r="F39" s="72"/>
       <c r="G39" s="41"/>
       <c r="H39" s="72"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="64"/>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E40" s="20"/>
       <c r="F40" s="72"/>
       <c r="G40" s="41"/>
       <c r="H40" s="72"/>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="64"/>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E41" s="20"/>
       <c r="F41" s="72"/>
       <c r="G41" s="41"/>
       <c r="H41" s="72"/>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C42" s="64"/>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E42" s="20"/>
       <c r="F42" s="72"/>
       <c r="G42" s="41"/>
       <c r="H42" s="72"/>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C43" s="64"/>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E43" s="20"/>
       <c r="F43" s="72"/>
       <c r="G43" s="41"/>
       <c r="H43" s="72"/>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C44" s="64"/>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E44" s="20"/>
       <c r="F44" s="72"/>
       <c r="G44" s="41"/>
       <c r="H44" s="72"/>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="64"/>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E45" s="20"/>
       <c r="F45" s="72"/>
       <c r="G45" s="41"/>
       <c r="H45" s="72"/>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="64"/>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E46" s="20"/>
       <c r="F46" s="72"/>
       <c r="G46" s="41"/>
       <c r="H46" s="72"/>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C47" s="64"/>
+    <row r="47" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E47" s="20"/>
       <c r="F47" s="72"/>
       <c r="G47" s="41"/>
       <c r="H47" s="72"/>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="64"/>
+    <row r="48" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E48" s="20"/>
       <c r="F48" s="72"/>
       <c r="G48" s="41"/>
       <c r="H48" s="72"/>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C49" s="64"/>
+    <row r="49" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E49" s="20"/>
       <c r="F49" s="72"/>
       <c r="G49" s="41"/>
       <c r="H49" s="72"/>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C50" s="64"/>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E50" s="20"/>
       <c r="F50" s="72"/>
       <c r="G50" s="41"/>
       <c r="H50" s="72"/>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C51" s="64"/>
+    <row r="51" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E51" s="20"/>
       <c r="F51" s="72"/>
       <c r="G51" s="41"/>
       <c r="H51" s="72"/>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C52" s="64"/>
+    <row r="52" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E52" s="20"/>
       <c r="F52" s="72"/>
       <c r="G52" s="41"/>
       <c r="H52" s="72"/>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C53" s="64"/>
+    <row r="53" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E53" s="20"/>
       <c r="F53" s="72"/>
       <c r="G53" s="41"/>
       <c r="H53" s="72"/>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C54" s="64"/>
+    <row r="54" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E54" s="20"/>
       <c r="F54" s="72"/>
       <c r="G54" s="41"/>
       <c r="H54" s="72"/>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C55" s="64"/>
+    <row r="55" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E55" s="20"/>
       <c r="F55" s="72"/>
       <c r="G55" s="41"/>
       <c r="H55" s="72"/>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C56" s="64"/>
+    <row r="56" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E56" s="20"/>
       <c r="F56" s="72"/>
       <c r="G56" s="41"/>
       <c r="H56" s="72"/>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C57" s="64"/>
+    <row r="57" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E57" s="20"/>
       <c r="F57" s="72"/>
       <c r="G57" s="41"/>
       <c r="H57" s="72"/>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C58" s="64"/>
+    <row r="58" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E58" s="20"/>
       <c r="F58" s="72"/>
       <c r="G58" s="41"/>
       <c r="H58" s="72"/>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C59" s="64"/>
+    <row r="59" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E59" s="20"/>
       <c r="F59" s="72"/>
       <c r="G59" s="41"/>
       <c r="H59" s="72"/>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C60" s="64"/>
+    <row r="60" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E60" s="20"/>
       <c r="F60" s="72"/>
       <c r="G60" s="41"/>
       <c r="H60" s="72"/>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C61" s="64"/>
+    <row r="61" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E61" s="20"/>
       <c r="F61" s="72"/>
       <c r="G61" s="41"/>
       <c r="H61" s="72"/>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C62" s="64"/>
+    <row r="62" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E62" s="20"/>
       <c r="F62" s="72"/>
       <c r="G62" s="41"/>
       <c r="H62" s="72"/>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C63" s="64"/>
+    <row r="63" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E63" s="20"/>
       <c r="F63" s="72"/>
       <c r="G63" s="41"/>
       <c r="H63" s="72"/>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C64" s="64"/>
+    <row r="64" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E64" s="20"/>
       <c r="F64" s="72"/>
       <c r="G64" s="41"/>
       <c r="H64" s="72"/>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C65" s="64"/>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E65" s="20"/>
       <c r="F65" s="72"/>
       <c r="G65" s="41"/>
       <c r="H65" s="72"/>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C66" s="64"/>
+    <row r="66" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E66" s="20"/>
       <c r="F66" s="72"/>
       <c r="G66" s="41"/>
       <c r="H66" s="72"/>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C67" s="64"/>
+    <row r="67" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E67" s="20"/>
       <c r="F67" s="72"/>
       <c r="G67" s="41"/>
       <c r="H67" s="72"/>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C68" s="64"/>
+    <row r="68" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E68" s="20"/>
       <c r="F68" s="72"/>
       <c r="G68" s="41"/>
       <c r="H68" s="72"/>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C69" s="64"/>
+    <row r="69" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E69" s="20"/>
       <c r="F69" s="72"/>
       <c r="G69" s="41"/>
       <c r="H69" s="72"/>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C70" s="64"/>
+    <row r="70" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E70" s="20"/>
       <c r="F70" s="72"/>
       <c r="G70" s="41"/>
       <c r="H70" s="72"/>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C71" s="64"/>
+    <row r="71" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E71" s="20"/>
       <c r="F71" s="72"/>
       <c r="G71" s="41"/>
       <c r="H71" s="72"/>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C72" s="64"/>
+    <row r="72" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E72" s="20"/>
       <c r="F72" s="72"/>
       <c r="G72" s="41"/>
       <c r="H72" s="72"/>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C73" s="64"/>
+    <row r="73" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E73" s="20"/>
       <c r="F73" s="72"/>
       <c r="G73" s="41"/>
       <c r="H73" s="72"/>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C74" s="64"/>
+    <row r="74" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E74" s="20"/>
       <c r="F74" s="72"/>
       <c r="G74" s="41"/>
       <c r="H74" s="72"/>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C75" s="64"/>
+    <row r="75" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E75" s="20"/>
       <c r="F75" s="72"/>
       <c r="G75" s="41"/>
       <c r="H75" s="72"/>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C76" s="64"/>
+    <row r="76" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E76" s="20"/>
       <c r="F76" s="72"/>
       <c r="G76" s="41"/>
       <c r="H76" s="72"/>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C77" s="64"/>
+    <row r="77" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E77" s="20"/>
       <c r="F77" s="72"/>
       <c r="G77" s="41"/>
       <c r="H77" s="72"/>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C78" s="64"/>
+    <row r="78" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E78" s="20"/>
       <c r="F78" s="72"/>
       <c r="G78" s="41"/>
       <c r="H78" s="72"/>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C79" s="64"/>
+    <row r="79" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E79" s="20"/>
       <c r="F79" s="72"/>
       <c r="G79" s="41"/>
       <c r="H79" s="72"/>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C80" s="64"/>
+    <row r="80" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E80" s="20"/>
       <c r="F80" s="72"/>
       <c r="G80" s="41"/>
       <c r="H80" s="72"/>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C81" s="64"/>
+    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E81" s="20"/>
       <c r="F81" s="72"/>
       <c r="G81" s="41"/>
       <c r="H81" s="72"/>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C82" s="64"/>
+    <row r="82" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E82" s="20"/>
       <c r="F82" s="72"/>
       <c r="G82" s="41"/>
       <c r="H82" s="72"/>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C83" s="64"/>
+    <row r="83" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E83" s="20"/>
       <c r="F83" s="72"/>
       <c r="G83" s="41"/>
       <c r="H83" s="72"/>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C84" s="64"/>
+    <row r="84" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E84" s="20"/>
       <c r="F84" s="72"/>
       <c r="G84" s="41"/>
       <c r="H84" s="72"/>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C85" s="64"/>
+    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E85" s="20"/>
       <c r="F85" s="72"/>
       <c r="G85" s="41"/>
       <c r="H85" s="72"/>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C86" s="64"/>
+    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E86" s="20"/>
       <c r="F86" s="72"/>
       <c r="G86" s="41"/>
       <c r="H86" s="72"/>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C87" s="64"/>
+    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E87" s="20"/>
       <c r="F87" s="72"/>
       <c r="G87" s="41"/>
       <c r="H87" s="72"/>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C88" s="64"/>
+    <row r="88" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E88" s="20"/>
       <c r="F88" s="72"/>
       <c r="G88" s="41"/>
       <c r="H88" s="72"/>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C89" s="64"/>
+    <row r="89" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E89" s="20"/>
       <c r="F89" s="72"/>
       <c r="G89" s="41"/>
       <c r="H89" s="72"/>
     </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C90" s="64"/>
+    <row r="90" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E90" s="20"/>
       <c r="F90" s="72"/>
       <c r="G90" s="41"/>
       <c r="H90" s="72"/>
     </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C91" s="64"/>
+    <row r="91" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E91" s="20"/>
       <c r="F91" s="72"/>
       <c r="G91" s="41"/>
       <c r="H91" s="72"/>
     </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C92" s="64"/>
+    <row r="92" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E92" s="20"/>
       <c r="F92" s="72"/>
       <c r="G92" s="41"/>
       <c r="H92" s="72"/>
     </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C93" s="64"/>
+    <row r="93" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E93" s="20"/>
       <c r="F93" s="72"/>
       <c r="G93" s="41"/>
       <c r="H93" s="72"/>
     </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C94" s="64"/>
+    <row r="94" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E94" s="20"/>
       <c r="F94" s="72"/>
       <c r="G94" s="41"/>
       <c r="H94" s="72"/>
     </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C95" s="64"/>
+    <row r="95" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E95" s="20"/>
       <c r="F95" s="72"/>
       <c r="G95" s="41"/>
@@ -9063,12 +8976,18 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E95" xr:uid="{25D68C57-A2A9-4669-A699-AC8A59751346}">
       <formula1>"INVEST,SAVINGS,ROTH,TRAD,529"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C95" xr:uid="{E12E05AA-A980-45F0-95A5-FA96D31A2214}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C7 C3" xr:uid="{E12E05AA-A980-45F0-95A5-FA96D31A2214}">
       <formula1>"JOINT,IND_1,IND_2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C5 C8:C1048576" xr:uid="{EE108C69-7C88-4FD1-8224-DF015647394D}">
+      <formula1>"JOINT,IND-1,IND-2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{F98D437B-43E6-4052-918F-E2DEB5F9907A}">
+      <formula1>"LONG,SHORT,NONE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/python/Inputs/Inputs_ThorntonParents.xlsx
+++ b/python/Inputs/Inputs_ThorntonParents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Dropbox\PC\Desktop\Projects\personalFinances\python\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9BC28D-84C2-41A7-8A0A-183036DE1BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A32E40E-C538-446C-A055-C530F852C1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="44">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2570,7 +2570,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2685,16 +2685,20 @@
         <v>30000</v>
       </c>
       <c r="D4" s="33">
+        <f>IF(ISNUMBER(C4),100%,"")</f>
         <v>1</v>
       </c>
       <c r="E4" s="33">
+        <f t="shared" ref="E4:E12" si="0">IF(ISNUMBER(D4),-15%,"")</f>
         <v>-0.15</v>
       </c>
-      <c r="F4" s="36">
-        <v>4</v>
+      <c r="F4" s="60">
+        <f t="shared" ref="F4:F12" si="1">IF(ISNUMBER(E4),5,"")</f>
+        <v>5</v>
       </c>
       <c r="G4" s="37">
-        <v>3.9899999999999998E-2</v>
+        <f t="shared" ref="G4:G12" si="2">IF(ISNUMBER(F4),1.9%,"")</f>
+        <v>1.9E-2</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>2</v>
@@ -2713,24 +2717,25 @@
       </c>
       <c r="B5" s="19">
         <f ca="1">IF(ISNUMBER(A5),A5+RANDBETWEEN(7,12),"")</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="18">
         <v>35000</v>
       </c>
       <c r="D5" s="33">
+        <f t="shared" ref="D5:D20" si="3">IF(ISNUMBER(C5),100%,"")</f>
         <v>1</v>
       </c>
       <c r="E5" s="33">
-        <f>IF(ISNUMBER(D5),-15%,"")</f>
+        <f t="shared" si="0"/>
         <v>-0.15</v>
       </c>
       <c r="F5" s="60">
-        <f>IF(ISNUMBER(E5),5,"")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G5" s="37">
-        <f>IF(ISNUMBER(F5),1.9%,"")</f>
+        <f t="shared" si="2"/>
         <v>1.9E-2</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -2749,53 +2754,55 @@
         <v>4</v>
       </c>
       <c r="B6" s="19">
-        <f t="shared" ref="B6:B20" ca="1" si="0">IF(ISNUMBER(A6),A6+RANDBETWEEN(7,12),"")</f>
-        <v>14</v>
+        <f t="shared" ref="B6:B20" ca="1" si="4">IF(ISNUMBER(A6),A6+RANDBETWEEN(7,12),"")</f>
+        <v>15</v>
       </c>
       <c r="C6" s="18">
         <v>35000</v>
       </c>
       <c r="D6" s="33">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E6" s="33">
-        <f t="shared" ref="E6:E20" si="1">IF(ISNUMBER(D6),-15%,"")</f>
+        <f t="shared" si="0"/>
         <v>-0.15</v>
       </c>
       <c r="F6" s="60">
-        <f t="shared" ref="F6:F20" si="2">IF(ISNUMBER(E6),5,"")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G6" s="37">
-        <f t="shared" ref="G6:G20" si="3">IF(ISNUMBER(F6),1.9%,"")</f>
+        <f t="shared" si="2"/>
         <v>1.9E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <f ca="1">IF(B5&lt;Inputs!$C$3,B5,"")</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
       </c>
       <c r="C7" s="18">
         <v>35000</v>
       </c>
       <c r="D7" s="33">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E7" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F7" s="60">
         <f t="shared" si="1"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F7" s="60">
+        <v>5</v>
+      </c>
+      <c r="G7" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G7" s="37">
-        <f t="shared" si="3"/>
         <v>1.9E-2</v>
       </c>
       <c r="I7" s="31" t="s">
@@ -2808,173 +2815,179 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <f ca="1">IF(B6&lt;Inputs!$C$3,B6,"")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26</v>
       </c>
       <c r="C8" s="18">
         <v>40000</v>
       </c>
       <c r="D8" s="33">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E8" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F8" s="60">
         <f t="shared" si="1"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F8" s="60">
+        <v>5</v>
+      </c>
+      <c r="G8" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G8" s="37">
-        <f t="shared" si="3"/>
         <v>1.9E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <f ca="1">IF(B7&lt;Inputs!$C$3,B7,"")</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>31</v>
       </c>
       <c r="C9" s="18">
         <v>40000</v>
       </c>
       <c r="D9" s="33">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E9" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F9" s="60">
         <f t="shared" si="1"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F9" s="60">
+        <v>5</v>
+      </c>
+      <c r="G9" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G9" s="37">
-        <f t="shared" si="3"/>
         <v>1.9E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <f ca="1">IF(B8&lt;Inputs!$C$3,B8,"")</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B10" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>37</v>
       </c>
       <c r="C10" s="18">
         <f ca="1">IF(ISNUMBER(B10),RANDBETWEEN(40000,60000),"")</f>
-        <v>48200</v>
+        <v>40966</v>
       </c>
       <c r="D10" s="33">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="E10" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>-0.15</v>
       </c>
       <c r="F10" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="G10" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1.9E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <f ca="1">IF(B9&lt;Inputs!$C$3,B9,"")</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B11" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>42</v>
       </c>
       <c r="C11" s="18">
         <f ca="1">IF(ISNUMBER(B11),RANDBETWEEN(40000,60000),"")</f>
-        <v>43911</v>
+        <v>48309</v>
       </c>
       <c r="D11" s="33">
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="E11" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>-0.15</v>
       </c>
       <c r="F11" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="G11" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1.9E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <f ca="1">IF(B10&lt;Inputs!$C$3,B10,"")</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B12" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="C12" s="18">
+        <f t="shared" ref="C12:C20" ca="1" si="5">IF(ISNUMBER(B12),RANDBETWEEN(40000,60000),"")</f>
+        <v>59512</v>
+      </c>
+      <c r="D12" s="33">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C12" s="18">
-        <f t="shared" ref="C12:C20" ca="1" si="4">IF(ISNUMBER(B12),RANDBETWEEN(40000,60000),"")</f>
-        <v>54650</v>
-      </c>
-      <c r="D12" s="33">
-        <v>1</v>
-      </c>
-      <c r="E12" s="33">
-        <f t="shared" si="1"/>
         <v>-0.15</v>
       </c>
       <c r="F12" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="G12" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1.9E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="A13" s="17" t="str">
         <f ca="1">IF(B11&lt;Inputs!$C$3,B11,"")</f>
-        <v>36</v>
-      </c>
-      <c r="B13" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C13" s="18">
+        <v/>
+      </c>
+      <c r="B13" s="19" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>51047</v>
-      </c>
-      <c r="D13" s="33">
-        <v>1</v>
-      </c>
-      <c r="E13" s="33">
-        <f t="shared" si="1"/>
-        <v>-0.15</v>
-      </c>
-      <c r="F13" s="60">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G13" s="37">
-        <f t="shared" si="3"/>
-        <v>1.9E-2</v>
+        <v/>
+      </c>
+      <c r="C13" s="18" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="D13" s="33" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E13" s="33" t="str">
+        <f t="shared" ref="E13" ca="1" si="6">IF(ISNUMBER(D13),-15%,"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="60" t="str">
+        <f t="shared" ref="F13" ca="1" si="7">IF(ISNUMBER(E13),5,"")</f>
+        <v/>
+      </c>
+      <c r="G13" s="37" t="str">
+        <f t="shared" ref="G13" ca="1" si="8">IF(ISNUMBER(F13),1.9%,"")</f>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2983,27 +2996,27 @@
         <v/>
       </c>
       <c r="B14" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C14" s="18" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
+      <c r="C14" s="18" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="D14" s="33" t="str">
-        <f t="shared" ref="D14:D20" ca="1" si="5">IF(ISNUMBER(C14),20%,"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E14" s="33" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="E6:E20" ca="1" si="9">IF(ISNUMBER(D14),-15%,"")</f>
         <v/>
       </c>
       <c r="F14" s="60" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="F6:F20" ca="1" si="10">IF(ISNUMBER(E14),5,"")</f>
         <v/>
       </c>
       <c r="G14" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="G6:G20" ca="1" si="11">IF(ISNUMBER(F14),1.9%,"")</f>
         <v/>
       </c>
     </row>
@@ -3013,27 +3026,27 @@
         <v/>
       </c>
       <c r="B15" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C15" s="18" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="D15" s="33" t="str">
+      <c r="C15" s="18" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
+      <c r="D15" s="33" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="E15" s="33" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="F15" s="60" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="G15" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -3043,27 +3056,27 @@
         <v/>
       </c>
       <c r="B16" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C16" s="18" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="D16" s="33" t="str">
+      <c r="C16" s="18" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
+      <c r="D16" s="33" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="E16" s="33" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="F16" s="60" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="G16" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -3073,27 +3086,27 @@
         <v/>
       </c>
       <c r="B17" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C17" s="18" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="D17" s="33" t="str">
+      <c r="C17" s="18" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
+      <c r="D17" s="33" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="E17" s="33" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="F17" s="60" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="G17" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -3103,27 +3116,27 @@
         <v/>
       </c>
       <c r="B18" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C18" s="18" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="D18" s="33" t="str">
+      <c r="C18" s="18" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
+      <c r="D18" s="33" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="E18" s="33" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="F18" s="60" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="G18" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -3133,27 +3146,27 @@
         <v/>
       </c>
       <c r="B19" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C19" s="18" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="D19" s="33" t="str">
+      <c r="C19" s="18" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
+      <c r="D19" s="33" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="E19" s="33" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="F19" s="60" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="G19" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -3163,27 +3176,27 @@
         <v/>
       </c>
       <c r="B20" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C20" s="18" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="D20" s="33" t="str">
+      <c r="C20" s="18" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
+      <c r="D20" s="33" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="E20" s="33" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="F20" s="60" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="G20" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
@@ -5652,7 +5665,7 @@
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5676,7 +5689,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="12">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="45"/>
     </row>
@@ -6530,7 +6543,7 @@
       </c>
       <c r="B13" s="63">
         <f ca="1">(1+(RANDBETWEEN(2,10)/100))*B12</f>
-        <v>408000</v>
+        <v>432000</v>
       </c>
       <c r="C13" s="63"/>
     </row>
@@ -6541,7 +6554,7 @@
       </c>
       <c r="B14" s="63">
         <f t="shared" ref="B14:B26" ca="1" si="1">(1+(RANDBETWEEN(2,10)/100))*B13</f>
-        <v>436560</v>
+        <v>444960</v>
       </c>
       <c r="C14" s="63"/>
     </row>
@@ -6552,7 +6565,7 @@
       </c>
       <c r="B15" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>475850.4</v>
+        <v>480556.80000000005</v>
       </c>
       <c r="C15" s="63"/>
     </row>
@@ -6563,7 +6576,7 @@
       </c>
       <c r="B16" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>504401.42400000006</v>
+        <v>523806.91200000007</v>
       </c>
       <c r="C16" s="63"/>
     </row>
@@ -6574,7 +6587,7 @@
       </c>
       <c r="B17" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>554841.56640000013</v>
+        <v>576187.60320000013</v>
       </c>
       <c r="C17" s="63"/>
     </row>
@@ -6585,7 +6598,7 @@
       </c>
       <c r="B18" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>571486.81339200016</v>
+        <v>610758.85939200013</v>
       </c>
       <c r="C18" s="63"/>
     </row>
@@ -6596,7 +6609,7 @@
       </c>
       <c r="B19" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>617205.75846336025</v>
+        <v>629081.62517376011</v>
       </c>
       <c r="C19" s="63"/>
     </row>
@@ -6607,7 +6620,7 @@
       </c>
       <c r="B20" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>660410.16155579546</v>
+        <v>666826.52268418577</v>
       </c>
       <c r="C20" s="63"/>
     </row>
@@ -6618,7 +6631,7 @@
       </c>
       <c r="B21" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>673618.36478691141</v>
+        <v>726840.90972576255</v>
       </c>
       <c r="C21" s="63"/>
     </row>
@@ -6629,7 +6642,7 @@
       </c>
       <c r="B22" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>687090.7320826496</v>
+        <v>784988.18250382366</v>
       </c>
       <c r="C22" s="63"/>
     </row>
@@ -6640,7 +6653,7 @@
       </c>
       <c r="B23" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>714574.36136595556</v>
+        <v>816387.70980397658</v>
       </c>
       <c r="C23" s="63"/>
     </row>
@@ -6651,7 +6664,7 @@
       </c>
       <c r="B24" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>736011.59220693423</v>
+        <v>889862.60368633457</v>
       </c>
       <c r="C24" s="63"/>
     </row>
@@ -6662,7 +6675,7 @@
       </c>
       <c r="B25" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>758091.93997314223</v>
+        <v>907659.8557600613</v>
       </c>
       <c r="C25" s="63"/>
     </row>
@@ -6673,7 +6686,7 @@
       </c>
       <c r="B26" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>773253.77877260512</v>
+        <v>962119.44710566499</v>
       </c>
       <c r="C26" s="63"/>
     </row>
@@ -8286,7 +8299,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8296,9 +8309,9 @@
     <col min="3" max="3" width="8.109375" style="64" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -8340,7 +8353,7 @@
         <v>138</v>
       </c>
       <c r="B3" s="25">
-        <v>3000</v>
+        <v>60000</v>
       </c>
       <c r="C3" s="64" t="s">
         <v>93</v>
@@ -8440,7 +8453,10 @@
       <c r="E7" s="20">
         <v>529</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="72" t="str">
+        <f>A6</f>
+        <v>savings</v>
+      </c>
       <c r="G7" s="41"/>
       <c r="H7" s="72"/>
     </row>

--- a/python/Inputs/Inputs_ThorntonParents.xlsx
+++ b/python/Inputs/Inputs_ThorntonParents.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Dropbox\PC\Desktop\Projects\personalFinances\python\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A32E40E-C538-446C-A055-C530F852C1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3506C6-6ADC-4237-80B2-C0DE603EF772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
     <sheet name="Salary" sheetId="20" r:id="rId2"/>
-    <sheet name="Salary (Past)" sheetId="28" r:id="rId3"/>
+    <sheet name="Social Security" sheetId="28" r:id="rId3"/>
     <sheet name="Accounts" sheetId="4" r:id="rId4"/>
     <sheet name="Allocations" sheetId="2" r:id="rId5"/>
     <sheet name="Earnings" sheetId="3" r:id="rId6"/>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="44">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1783,10 +1783,10 @@
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="44">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D8" s="19">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B5" s="19">
         <f ca="1">IF(ISNUMBER(A5),A5+RANDBETWEEN(7,12),"")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="18">
         <v>35000</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="B6" s="19">
         <f t="shared" ref="B6:B20" ca="1" si="4">IF(ISNUMBER(A6),A6+RANDBETWEEN(7,12),"")</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="18">
         <v>35000</v>
@@ -2780,11 +2780,11 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <f ca="1">IF(B5&lt;Inputs!$C$3,B5,"")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="18">
         <v>35000</v>
@@ -2815,11 +2815,11 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <f ca="1">IF(B6&lt;Inputs!$C$3,B6,"")</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" s="18">
         <v>40000</v>
@@ -2844,7 +2844,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <f ca="1">IF(B7&lt;Inputs!$C$3,B7,"")</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="19">
         <f t="shared" ca="1" si="4"/>
@@ -2873,15 +2873,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <f ca="1">IF(B8&lt;Inputs!$C$3,B8,"")</f>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C10" s="18">
         <f ca="1">IF(ISNUMBER(B10),RANDBETWEEN(40000,60000),"")</f>
-        <v>40966</v>
+        <v>52161</v>
       </c>
       <c r="D10" s="33">
         <f t="shared" ca="1" si="3"/>
@@ -2907,11 +2907,11 @@
       </c>
       <c r="B11" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="18">
         <f ca="1">IF(ISNUMBER(B11),RANDBETWEEN(40000,60000),"")</f>
-        <v>48309</v>
+        <v>48177</v>
       </c>
       <c r="D11" s="33">
         <f t="shared" ca="1" si="3"/>
@@ -2933,15 +2933,15 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <f ca="1">IF(B10&lt;Inputs!$C$3,B10,"")</f>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B12" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="18">
         <f t="shared" ref="C12:C20" ca="1" si="5">IF(ISNUMBER(B12),RANDBETWEEN(40000,60000),"")</f>
-        <v>59512</v>
+        <v>59141</v>
       </c>
       <c r="D12" s="33">
         <f t="shared" ca="1" si="3"/>
@@ -6554,7 +6554,7 @@
       </c>
       <c r="B14" s="63">
         <f t="shared" ref="B14:B26" ca="1" si="1">(1+(RANDBETWEEN(2,10)/100))*B13</f>
-        <v>444960</v>
+        <v>475200.00000000006</v>
       </c>
       <c r="C14" s="63"/>
     </row>
@@ -6565,7 +6565,7 @@
       </c>
       <c r="B15" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>480556.80000000005</v>
+        <v>498960.00000000006</v>
       </c>
       <c r="C15" s="63"/>
     </row>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="B16" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>523806.91200000007</v>
+        <v>528897.60000000009</v>
       </c>
       <c r="C16" s="63"/>
     </row>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="B17" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>576187.60320000013</v>
+        <v>565920.43200000015</v>
       </c>
       <c r="C17" s="63"/>
     </row>
@@ -6598,7 +6598,7 @@
       </c>
       <c r="B18" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>610758.85939200013</v>
+        <v>588557.24928000022</v>
       </c>
       <c r="C18" s="63"/>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="B19" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>629081.62517376011</v>
+        <v>635641.82922240032</v>
       </c>
       <c r="C19" s="63"/>
     </row>
@@ -6620,7 +6620,7 @@
       </c>
       <c r="B20" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>666826.52268418577</v>
+        <v>648354.66580684832</v>
       </c>
       <c r="C20" s="63"/>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="B21" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>726840.90972576255</v>
+        <v>667805.30578105384</v>
       </c>
       <c r="C21" s="63"/>
     </row>
@@ -6642,7 +6642,7 @@
       </c>
       <c r="B22" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>784988.18250382366</v>
+        <v>721229.73024353816</v>
       </c>
       <c r="C22" s="63"/>
     </row>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="B23" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>816387.70980397658</v>
+        <v>771715.81136058585</v>
       </c>
       <c r="C23" s="63"/>
     </row>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B24" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>889862.60368633457</v>
+        <v>848887.39249664452</v>
       </c>
       <c r="C24" s="63"/>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="B25" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>907659.8557600613</v>
+        <v>916798.38389637612</v>
       </c>
       <c r="C25" s="63"/>
     </row>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="B26" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>962119.44710566499</v>
+        <v>944302.33541326749</v>
       </c>
       <c r="C26" s="63"/>
     </row>
@@ -8299,7 +8299,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E95" sqref="E3:E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8994,7 +8994,7 @@
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E95" xr:uid="{25D68C57-A2A9-4669-A699-AC8A59751346}">
-      <formula1>"INVEST,SAVINGS,ROTH,TRAD,529"</formula1>
+      <formula1>"INVEST,DIVIDEND,SAVINGS,ROTH,TRAD,529"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C7 C3" xr:uid="{E12E05AA-A980-45F0-95A5-FA96D31A2214}">
       <formula1>"JOINT,IND_1,IND_2"</formula1>
@@ -9122,7 +9122,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9163,10 +9163,10 @@
         <v>138</v>
       </c>
       <c r="B3" s="23">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="C3" s="23">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>

--- a/python/Inputs/Inputs_ThorntonParents.xlsx
+++ b/python/Inputs/Inputs_ThorntonParents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Dropbox\PC\Desktop\Projects\personalFinances\python\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3506C6-6ADC-4237-80B2-C0DE603EF772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8881D20D-D6EB-4463-901B-D840AA957D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="44">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1783,10 +1783,10 @@
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="44">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D8" s="19">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B5" s="19">
         <f ca="1">IF(ISNUMBER(A5),A5+RANDBETWEEN(7,12),"")</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="18">
         <v>35000</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="B6" s="19">
         <f t="shared" ref="B6:B20" ca="1" si="4">IF(ISNUMBER(A6),A6+RANDBETWEEN(7,12),"")</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="18">
         <v>35000</v>
@@ -2780,11 +2780,11 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <f ca="1">IF(B5&lt;Inputs!$C$3,B5,"")</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="18">
         <v>35000</v>
@@ -2815,11 +2815,11 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <f ca="1">IF(B6&lt;Inputs!$C$3,B6,"")</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="18">
         <v>40000</v>
@@ -2844,11 +2844,11 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <f ca="1">IF(B7&lt;Inputs!$C$3,B7,"")</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="18">
         <v>40000</v>
@@ -2873,15 +2873,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <f ca="1">IF(B8&lt;Inputs!$C$3,B8,"")</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C10" s="18">
         <f ca="1">IF(ISNUMBER(B10),RANDBETWEEN(40000,60000),"")</f>
-        <v>52161</v>
+        <v>42443</v>
       </c>
       <c r="D10" s="33">
         <f t="shared" ca="1" si="3"/>
@@ -2903,15 +2903,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <f ca="1">IF(B9&lt;Inputs!$C$3,B9,"")</f>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B11" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="18">
         <f ca="1">IF(ISNUMBER(B11),RANDBETWEEN(40000,60000),"")</f>
-        <v>48177</v>
+        <v>40924</v>
       </c>
       <c r="D11" s="33">
         <f t="shared" ca="1" si="3"/>
@@ -2933,15 +2933,15 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <f ca="1">IF(B10&lt;Inputs!$C$3,B10,"")</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B12" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="18">
         <f t="shared" ref="C12:C20" ca="1" si="5">IF(ISNUMBER(B12),RANDBETWEEN(40000,60000),"")</f>
-        <v>59141</v>
+        <v>44294</v>
       </c>
       <c r="D12" s="33">
         <f t="shared" ca="1" si="3"/>
@@ -2961,33 +2961,33 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="str">
+      <c r="A13" s="17">
         <f ca="1">IF(B11&lt;Inputs!$C$3,B11,"")</f>
-        <v/>
-      </c>
-      <c r="B13" s="19" t="str">
+        <v>38</v>
+      </c>
+      <c r="B13" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="C13" s="18" t="str">
+        <v>48</v>
+      </c>
+      <c r="C13" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="D13" s="33" t="str">
+        <v>55233</v>
+      </c>
+      <c r="D13" s="33">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="E13" s="33" t="str">
+        <v>1</v>
+      </c>
+      <c r="E13" s="33">
         <f t="shared" ref="E13" ca="1" si="6">IF(ISNUMBER(D13),-15%,"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="60" t="str">
+        <v>-0.15</v>
+      </c>
+      <c r="F13" s="60">
         <f t="shared" ref="F13" ca="1" si="7">IF(ISNUMBER(E13),5,"")</f>
-        <v/>
-      </c>
-      <c r="G13" s="37" t="str">
+        <v>5</v>
+      </c>
+      <c r="G13" s="37">
         <f t="shared" ref="G13" ca="1" si="8">IF(ISNUMBER(F13),1.9%,"")</f>
-        <v/>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="B13" s="63">
         <f ca="1">(1+(RANDBETWEEN(2,10)/100))*B12</f>
-        <v>432000</v>
+        <v>440000.00000000006</v>
       </c>
       <c r="C13" s="63"/>
     </row>
@@ -6554,7 +6554,7 @@
       </c>
       <c r="B14" s="63">
         <f t="shared" ref="B14:B26" ca="1" si="1">(1+(RANDBETWEEN(2,10)/100))*B13</f>
-        <v>475200.00000000006</v>
+        <v>479600.00000000012</v>
       </c>
       <c r="C14" s="63"/>
     </row>
@@ -6565,7 +6565,7 @@
       </c>
       <c r="B15" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>498960.00000000006</v>
+        <v>522764.00000000017</v>
       </c>
       <c r="C15" s="63"/>
     </row>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="B16" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>528897.60000000009</v>
+        <v>559357.48000000021</v>
       </c>
       <c r="C16" s="63"/>
     </row>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="B17" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>565920.43200000015</v>
+        <v>576138.20440000028</v>
       </c>
       <c r="C17" s="63"/>
     </row>
@@ -6598,7 +6598,7 @@
       </c>
       <c r="B18" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>588557.24928000022</v>
+        <v>610706.49666400033</v>
       </c>
       <c r="C18" s="63"/>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="B19" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>635641.82922240032</v>
+        <v>635134.75653056032</v>
       </c>
       <c r="C19" s="63"/>
     </row>
@@ -6620,7 +6620,7 @@
       </c>
       <c r="B20" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>648354.66580684832</v>
+        <v>660540.14679178281</v>
       </c>
       <c r="C20" s="63"/>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="B21" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>667805.30578105384</v>
+        <v>726594.16147096117</v>
       </c>
       <c r="C21" s="63"/>
     </row>
@@ -6642,7 +6642,7 @@
       </c>
       <c r="B22" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>721229.73024353816</v>
+        <v>799253.57761805737</v>
       </c>
       <c r="C22" s="63"/>
     </row>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="B23" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>771715.81136058585</v>
+        <v>863193.86382750201</v>
       </c>
       <c r="C23" s="63"/>
     </row>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B24" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>848887.39249664452</v>
+        <v>940881.31157197722</v>
       </c>
       <c r="C24" s="63"/>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="B25" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>916798.38389637612</v>
+        <v>1034969.442729175</v>
       </c>
       <c r="C25" s="63"/>
     </row>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="B26" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>944302.33541326749</v>
+        <v>1138466.3870020926</v>
       </c>
       <c r="C26" s="63"/>
     </row>
